--- a/data/sp_data_dictionary.xlsx
+++ b/data/sp_data_dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="158">
   <si>
     <t xml:space="preserve">short_name</t>
   </si>
@@ -379,15 +379,21 @@
     <t xml:space="preserve">Locus control</t>
   </si>
   <si>
+    <t xml:space="preserve">soa_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индекс самоорганизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self organization</t>
+  </si>
+  <si>
     <t xml:space="preserve">soa_planfulness</t>
   </si>
   <si>
     <t xml:space="preserve">Планомерность</t>
   </si>
   <si>
-    <t xml:space="preserve">Self organization</t>
-  </si>
-  <si>
     <t xml:space="preserve">soa_purposefulness</t>
   </si>
   <si>
@@ -416,6 +422,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ориентация на настоящее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soa_purposefulness_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индекс целеустремленности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soa_rationality_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индекс рациональности</t>
   </si>
   <si>
     <t xml:space="preserve">clicker_vit</t>
@@ -588,7 +606,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+      <selection pane="topLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1431,27 +1449,27 @@
         <v>132</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1483,7 @@
         <v>33</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,27 +1491,27 @@
         <v>138</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1525,7 @@
         <v>33</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1539,7 @@
         <v>33</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1553,7 @@
         <v>33</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1543,29 +1561,68 @@
         <v>148</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C74" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D74" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
